--- a/Doc/PHD_Papers/Thesis_Paper/Single-hop_Wireless_Network/修改/测试数据（SWIB）/Sybil_test/Compare_Figure.xlsx
+++ b/Doc/PHD_Papers/Thesis_Paper/Single-hop_Wireless_Network/修改/测试数据（SWIB）/Sybil_test/Compare_Figure.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Desktop\Sybil_test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Desktop\Github Study\Blockchain\Doc\PHD_Papers\Thesis_Paper\Single-hop_Wireless_Network\修改\测试数据（SWIB）\Sybil_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864A8569-30EB-4829-A307-492B226A6671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA993550-8DFE-45D8-91C8-E4A4B14408BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Latency" sheetId="2" r:id="rId1"/>
     <sheet name="Throughput" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -243,34 +243,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.24346499999999999</c:v>
+                  <c:v>0.293325</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.24934200000000001</c:v>
+                  <c:v>0.29886000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.24215999999999999</c:v>
+                  <c:v>0.29764499999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.243087</c:v>
+                  <c:v>0.29555500000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.246168</c:v>
+                  <c:v>0.28866000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.22262599999999999</c:v>
+                  <c:v>0.30202000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.248054</c:v>
+                  <c:v>0.301985</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.22847200000000001</c:v>
+                  <c:v>0.30572500000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.23713899999999999</c:v>
+                  <c:v>0.28469499999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.25397500000000001</c:v>
+                  <c:v>0.27737000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -359,34 +359,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.240707</c:v>
+                  <c:v>0.34223999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.27937099999999998</c:v>
+                  <c:v>0.33766000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.27768300000000001</c:v>
+                  <c:v>0.32190000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.27579100000000001</c:v>
+                  <c:v>0.32858999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.27654699999999999</c:v>
+                  <c:v>0.31769999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.23522199999999999</c:v>
+                  <c:v>0.31340499999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.28448200000000001</c:v>
+                  <c:v>0.32019999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.26444099999999998</c:v>
+                  <c:v>0.31761499999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.313747</c:v>
+                  <c:v>0.31326500000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.39296900000000001</c:v>
+                  <c:v>0.29250500000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -475,34 +475,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.290989</c:v>
+                  <c:v>0.602325</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.30806499999999998</c:v>
+                  <c:v>0.55020000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.303255</c:v>
+                  <c:v>0.49222500000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.30461100000000002</c:v>
+                  <c:v>0.46379500000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.28378300000000001</c:v>
+                  <c:v>0.42330499999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.321687</c:v>
+                  <c:v>0.40436499999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.31165900000000002</c:v>
+                  <c:v>0.37662499999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.31530399999999997</c:v>
+                  <c:v>0.36645499999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.35600900000000002</c:v>
+                  <c:v>0.34838000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.426645</c:v>
+                  <c:v>0.35408499999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -511,128 +511,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-58B3-4089-8C43-61377B6C27E9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>700</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="sysDot"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Latency!$A$2:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.49</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Latency!$E$2:$E$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.31674799999999997</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.30483399999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.31775700000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.29650700000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.32073699999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.36191699999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.33462599999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.32791599999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.45657599999999998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.53668199999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-58B3-4089-8C43-61377B6C27E9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -864,8 +742,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.154"/>
-          <c:y val="4.7452610090405342E-2"/>
+          <c:x val="0.14844444444444443"/>
+          <c:y val="0.45023038786818315"/>
           <c:w val="0.14216666666666666"/>
           <c:h val="0.31250218722659673"/>
         </c:manualLayout>
@@ -1042,34 +920,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>8407</c:v>
+                  <c:v>6978</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8209</c:v>
+                  <c:v>6849</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8453</c:v>
+                  <c:v>6877</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8420</c:v>
+                  <c:v>6925</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8315</c:v>
+                  <c:v>6382</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8273</c:v>
+                  <c:v>6777</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8252</c:v>
+                  <c:v>6778</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8062</c:v>
+                  <c:v>6695</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7767</c:v>
+                  <c:v>5752</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7252</c:v>
+                  <c:v>5166</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1158,34 +1036,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>7652</c:v>
+                  <c:v>5981</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7327</c:v>
+                  <c:v>6062</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7371</c:v>
+                  <c:v>5723</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7422</c:v>
+                  <c:v>6229</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7401</c:v>
+                  <c:v>5798</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6959</c:v>
+                  <c:v>5878</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7195</c:v>
+                  <c:v>6392</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6965</c:v>
+                  <c:v>6444</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6524</c:v>
+                  <c:v>5880</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5209</c:v>
+                  <c:v>4898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1274,34 +1152,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>7034</c:v>
+                  <c:v>3398</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6644</c:v>
+                  <c:v>3720</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6750</c:v>
+                  <c:v>3742</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6720</c:v>
+                  <c:v>4413</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6490</c:v>
+                  <c:v>4352</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6363</c:v>
+                  <c:v>4556</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5910</c:v>
+                  <c:v>4891</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5841</c:v>
+                  <c:v>5585</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5174</c:v>
+                  <c:v>5288</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3836</c:v>
+                  <c:v>5202</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1310,128 +1188,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-01C1-4643-8272-DC82CFD1433E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>700</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="sysDot"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Throughput!$A$2:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.49</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Throughput!$E$2:$E$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>6462</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6715</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6442</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6212</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5743</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5655</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5504</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4366</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4034</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3432</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-01C1-4643-8272-DC82CFD1433E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1667,8 +1423,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.17899999999999999"/>
-          <c:y val="0.39930446194225722"/>
+          <c:x val="0.74844444444444447"/>
+          <c:y val="0.40393409157188687"/>
           <c:w val="0.14216666666666666"/>
           <c:h val="0.31250218722659673"/>
         </c:manualLayout>
@@ -3192,8 +2948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF6E9818-2F30-4B44-AB0C-404176B5CE63}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3223,13 +2979,13 @@
         <v>0.05</v>
       </c>
       <c r="B2" s="1">
-        <v>0.24346499999999999</v>
+        <v>0.293325</v>
       </c>
       <c r="C2" s="1">
-        <v>0.240707</v>
+        <v>0.34223999999999999</v>
       </c>
       <c r="D2" s="1">
-        <v>0.290989</v>
+        <v>0.602325</v>
       </c>
       <c r="E2" s="1">
         <v>0.31674799999999997</v>
@@ -3240,13 +2996,13 @@
         <v>0.1</v>
       </c>
       <c r="B3" s="1">
-        <v>0.24934200000000001</v>
+        <v>0.29886000000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>0.27937099999999998</v>
+        <v>0.33766000000000002</v>
       </c>
       <c r="D3" s="1">
-        <v>0.30806499999999998</v>
+        <v>0.55020000000000002</v>
       </c>
       <c r="E3" s="1">
         <v>0.30483399999999999</v>
@@ -3257,13 +3013,13 @@
         <v>0.15</v>
       </c>
       <c r="B4" s="1">
-        <v>0.24215999999999999</v>
+        <v>0.29764499999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>0.27768300000000001</v>
+        <v>0.32190000000000002</v>
       </c>
       <c r="D4" s="1">
-        <v>0.303255</v>
+        <v>0.49222500000000002</v>
       </c>
       <c r="E4" s="1">
         <v>0.31775700000000001</v>
@@ -3274,13 +3030,13 @@
         <v>0.2</v>
       </c>
       <c r="B5" s="1">
-        <v>0.243087</v>
+        <v>0.29555500000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>0.27579100000000001</v>
+        <v>0.32858999999999999</v>
       </c>
       <c r="D5" s="1">
-        <v>0.30461100000000002</v>
+        <v>0.46379500000000001</v>
       </c>
       <c r="E5" s="1">
         <v>0.29650700000000002</v>
@@ -3291,13 +3047,13 @@
         <v>0.25</v>
       </c>
       <c r="B6" s="1">
-        <v>0.246168</v>
+        <v>0.28866000000000003</v>
       </c>
       <c r="C6" s="1">
-        <v>0.27654699999999999</v>
+        <v>0.31769999999999998</v>
       </c>
       <c r="D6" s="1">
-        <v>0.28378300000000001</v>
+        <v>0.42330499999999999</v>
       </c>
       <c r="E6" s="1">
         <v>0.32073699999999999</v>
@@ -3308,13 +3064,13 @@
         <v>0.3</v>
       </c>
       <c r="B7" s="1">
-        <v>0.22262599999999999</v>
+        <v>0.30202000000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>0.23522199999999999</v>
+        <v>0.31340499999999999</v>
       </c>
       <c r="D7" s="1">
-        <v>0.321687</v>
+        <v>0.40436499999999997</v>
       </c>
       <c r="E7" s="1">
         <v>0.36191699999999999</v>
@@ -3325,13 +3081,13 @@
         <v>0.35</v>
       </c>
       <c r="B8" s="1">
-        <v>0.248054</v>
+        <v>0.301985</v>
       </c>
       <c r="C8" s="1">
-        <v>0.28448200000000001</v>
+        <v>0.32019999999999998</v>
       </c>
       <c r="D8" s="1">
-        <v>0.31165900000000002</v>
+        <v>0.37662499999999999</v>
       </c>
       <c r="E8" s="1">
         <v>0.33462599999999998</v>
@@ -3342,13 +3098,13 @@
         <v>0.4</v>
       </c>
       <c r="B9" s="1">
-        <v>0.22847200000000001</v>
+        <v>0.30572500000000002</v>
       </c>
       <c r="C9" s="1">
-        <v>0.26444099999999998</v>
+        <v>0.31761499999999998</v>
       </c>
       <c r="D9" s="1">
-        <v>0.31530399999999997</v>
+        <v>0.36645499999999998</v>
       </c>
       <c r="E9" s="1">
         <v>0.32791599999999999</v>
@@ -3359,13 +3115,13 @@
         <v>0.45</v>
       </c>
       <c r="B10" s="1">
-        <v>0.23713899999999999</v>
+        <v>0.28469499999999998</v>
       </c>
       <c r="C10" s="1">
-        <v>0.313747</v>
+        <v>0.31326500000000002</v>
       </c>
       <c r="D10" s="1">
-        <v>0.35600900000000002</v>
+        <v>0.34838000000000002</v>
       </c>
       <c r="E10" s="1">
         <v>0.45657599999999998</v>
@@ -3376,13 +3132,13 @@
         <v>0.49</v>
       </c>
       <c r="B11" s="1">
-        <v>0.25397500000000001</v>
+        <v>0.27737000000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>0.39296900000000001</v>
+        <v>0.29250500000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>0.426645</v>
+        <v>0.35408499999999998</v>
       </c>
       <c r="E11" s="1">
         <v>0.53668199999999999</v>
@@ -3433,8 +3189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BEF60D8-8EE4-4535-BD36-9220E17142E5}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3464,13 +3220,13 @@
         <v>0.05</v>
       </c>
       <c r="B2" s="1">
-        <v>8407</v>
+        <v>6978</v>
       </c>
       <c r="C2" s="1">
-        <v>7652</v>
+        <v>5981</v>
       </c>
       <c r="D2" s="1">
-        <v>7034</v>
+        <v>3398</v>
       </c>
       <c r="E2" s="1">
         <v>6462</v>
@@ -3481,13 +3237,13 @@
         <v>0.1</v>
       </c>
       <c r="B3" s="1">
-        <v>8209</v>
+        <v>6849</v>
       </c>
       <c r="C3" s="1">
-        <v>7327</v>
+        <v>6062</v>
       </c>
       <c r="D3" s="1">
-        <v>6644</v>
+        <v>3720</v>
       </c>
       <c r="E3" s="1">
         <v>6715</v>
@@ -3498,13 +3254,13 @@
         <v>0.15</v>
       </c>
       <c r="B4" s="1">
-        <v>8453</v>
+        <v>6877</v>
       </c>
       <c r="C4" s="1">
-        <v>7371</v>
+        <v>5723</v>
       </c>
       <c r="D4" s="1">
-        <v>6750</v>
+        <v>3742</v>
       </c>
       <c r="E4" s="1">
         <v>6442</v>
@@ -3515,13 +3271,13 @@
         <v>0.2</v>
       </c>
       <c r="B5" s="1">
-        <v>8420</v>
+        <v>6925</v>
       </c>
       <c r="C5" s="1">
-        <v>7422</v>
+        <v>6229</v>
       </c>
       <c r="D5" s="1">
-        <v>6720</v>
+        <v>4413</v>
       </c>
       <c r="E5" s="1">
         <v>6212</v>
@@ -3532,13 +3288,13 @@
         <v>0.25</v>
       </c>
       <c r="B6" s="1">
-        <v>8315</v>
+        <v>6382</v>
       </c>
       <c r="C6" s="1">
-        <v>7401</v>
+        <v>5798</v>
       </c>
       <c r="D6" s="1">
-        <v>6490</v>
+        <v>4352</v>
       </c>
       <c r="E6" s="1">
         <v>5743</v>
@@ -3549,13 +3305,13 @@
         <v>0.3</v>
       </c>
       <c r="B7" s="1">
-        <v>8273</v>
+        <v>6777</v>
       </c>
       <c r="C7" s="1">
-        <v>6959</v>
+        <v>5878</v>
       </c>
       <c r="D7" s="1">
-        <v>6363</v>
+        <v>4556</v>
       </c>
       <c r="E7" s="1">
         <v>5655</v>
@@ -3566,13 +3322,13 @@
         <v>0.35</v>
       </c>
       <c r="B8" s="1">
-        <v>8252</v>
+        <v>6778</v>
       </c>
       <c r="C8" s="1">
-        <v>7195</v>
+        <v>6392</v>
       </c>
       <c r="D8" s="1">
-        <v>5910</v>
+        <v>4891</v>
       </c>
       <c r="E8" s="1">
         <v>5504</v>
@@ -3583,13 +3339,13 @@
         <v>0.4</v>
       </c>
       <c r="B9" s="1">
-        <v>8062</v>
+        <v>6695</v>
       </c>
       <c r="C9" s="1">
-        <v>6965</v>
+        <v>6444</v>
       </c>
       <c r="D9" s="1">
-        <v>5841</v>
+        <v>5585</v>
       </c>
       <c r="E9" s="1">
         <v>4366</v>
@@ -3600,13 +3356,13 @@
         <v>0.45</v>
       </c>
       <c r="B10" s="1">
-        <v>7767</v>
+        <v>5752</v>
       </c>
       <c r="C10" s="1">
-        <v>6524</v>
+        <v>5880</v>
       </c>
       <c r="D10" s="1">
-        <v>5174</v>
+        <v>5288</v>
       </c>
       <c r="E10" s="1">
         <v>4034</v>
@@ -3617,13 +3373,13 @@
         <v>0.49</v>
       </c>
       <c r="B11" s="1">
-        <v>7252</v>
+        <v>5166</v>
       </c>
       <c r="C11" s="1">
-        <v>5209</v>
+        <v>4898</v>
       </c>
       <c r="D11" s="1">
-        <v>3836</v>
+        <v>5202</v>
       </c>
       <c r="E11" s="1">
         <v>3432</v>

--- a/Doc/PHD_Papers/Thesis_Paper/Single-hop_Wireless_Network/修改/测试数据（SWIB）/Sybil_test/Compare_Figure.xlsx
+++ b/Doc/PHD_Papers/Thesis_Paper/Single-hop_Wireless_Network/修改/测试数据（SWIB）/Sybil_test/Compare_Figure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Desktop\Github Study\Blockchain\Doc\PHD_Papers\Thesis_Paper\Single-hop_Wireless_Network\修改\测试数据（SWIB）\Sybil_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA993550-8DFE-45D8-91C8-E4A4B14408BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8238CB-20DF-4C7D-A0FF-1576501C5D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Latency" sheetId="2" r:id="rId1"/>
@@ -742,10 +742,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14844444444444443"/>
-          <c:y val="0.45023038786818315"/>
+          <c:x val="0.77344444444444449"/>
+          <c:y val="6.597112860892386E-2"/>
           <c:w val="0.14216666666666666"/>
-          <c:h val="0.31250218722659673"/>
+          <c:h val="0.27546515018955958"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2646,16 +2646,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2948,8 +2948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF6E9818-2F30-4B44-AB0C-404176B5CE63}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3189,8 +3189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BEF60D8-8EE4-4535-BD36-9220E17142E5}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
